--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
     <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -134,6 +135,12 @@
     <t>Pt—Legeme; højde = ? m</t>
   </si>
   <si>
+    <t>NPU08676</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; temp. = ? °C</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -197,6 +204,24 @@
     <t>CAT score;Pt</t>
   </si>
   <si>
+    <t>MCS88192</t>
+  </si>
+  <si>
+    <t>Skridt per dag;Pt</t>
+  </si>
+  <si>
+    <t>MCS88193</t>
+  </si>
+  <si>
+    <t>Skridt per uge;Pt</t>
+  </si>
+  <si>
+    <t>MCS88194</t>
+  </si>
+  <si>
+    <t>Skridt;Pt</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.208.184.100.8</t>
   </si>
   <si>
@@ -207,6 +232,45 @@
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.4</t>
+  </si>
+  <si>
+    <t>72287-6</t>
+  </si>
+  <si>
+    <t>Wound size panel</t>
+  </si>
+  <si>
+    <t>39126-8</t>
+  </si>
+  <si>
+    <t>Length of Wound</t>
+  </si>
+  <si>
+    <t>39125-0</t>
+  </si>
+  <si>
+    <t>Width of Wound</t>
+  </si>
+  <si>
+    <t>39127-6</t>
+  </si>
+  <si>
+    <t>Depth of Wound</t>
+  </si>
+  <si>
+    <t>89260-4</t>
+  </si>
+  <si>
+    <t>Area of wound</t>
+  </si>
+  <si>
+    <t>94083-3</t>
+  </si>
+  <si>
+    <t>Wound volume</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -473,7 +537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -536,15 +600,23 @@
         <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -574,90 +646,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>60</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -687,26 +783,115 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
   </si>
   <si>
     <t>NPU03011</t>
@@ -537,7 +549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,15 +620,31 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -646,114 +674,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -783,26 +811,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -832,66 +860,66 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -120,19 +120,19 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>O2 sat.;Hb(aB)</t>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
   </si>
   <si>
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Puls;Hjerte</t>
+    <t>Hjerte—Systole; frekv. = ? × 1/min</t>
   </si>
   <si>
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Legeme vægt; Pt</t>
+    <t>Pt—Legeme; masse = ? kg</t>
   </si>
   <si>
     <t>NPU27281</t>
@@ -178,18 +178,6 @@
   </si>
   <si>
     <t>FEV1/FVC;Lunge</t>
-  </si>
-  <si>
-    <t>MCS88019</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme systolisk;Arm</t>
-  </si>
-  <si>
-    <t>MCS88020</t>
-  </si>
-  <si>
-    <t>Blodtryk hjemme diastolisk;Arm</t>
   </si>
   <si>
     <t>MCS88021</t>
@@ -654,7 +642,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -754,34 +742,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +783,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -830,7 +802,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -860,50 +832,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -919,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-observation-codes.xlsx
+++ b/fhir/ValueSet-ehealth-observation-codes.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
